--- a/piloto_seguimiento/correcciones_list_canada.xlsx
+++ b/piloto_seguimiento/correcciones_list_canada.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\GitHub\entregables_meds\piloto_seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudio.pacheco\Documents\GitHub\entregables_meds\piloto_seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE9021B-79E9-438D-A446-F7DD807FD786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D14E996-B3F3-4295-8201-B0E91E9C3E98}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="191">
   <si>
     <t>med</t>
   </si>
@@ -196,12 +194,426 @@
   </si>
   <si>
     <t>catapres</t>
+  </si>
+  <si>
+    <t>crizotinib</t>
+  </si>
+  <si>
+    <t>xalkori</t>
+  </si>
+  <si>
+    <t>200+mg</t>
+  </si>
+  <si>
+    <t>250+mg</t>
+  </si>
+  <si>
+    <t>dactinomicina</t>
+  </si>
+  <si>
+    <t>dactinomycin</t>
+  </si>
+  <si>
+    <t>dapagliflozin</t>
+  </si>
+  <si>
+    <t>dapagliflozina</t>
+  </si>
+  <si>
+    <t>dasatinib</t>
+  </si>
+  <si>
+    <t>20+mg</t>
+  </si>
+  <si>
+    <t>70+mg</t>
+  </si>
+  <si>
+    <t>80+mg</t>
+  </si>
+  <si>
+    <t>140+mg</t>
+  </si>
+  <si>
+    <t>sprycel</t>
+  </si>
+  <si>
+    <t>empaglifozin</t>
+  </si>
+  <si>
+    <t>empaglifozina</t>
+  </si>
+  <si>
+    <t>jardiance</t>
+  </si>
+  <si>
+    <t>epinephrine</t>
+  </si>
+  <si>
+    <t>epinefrina</t>
+  </si>
+  <si>
+    <t>epipen</t>
+  </si>
+  <si>
+    <t>eplerenone</t>
+  </si>
+  <si>
+    <t>eplerenona</t>
+  </si>
+  <si>
+    <t>inspra</t>
+  </si>
+  <si>
+    <t>erlotinib</t>
+  </si>
+  <si>
+    <t>tarceva</t>
+  </si>
+  <si>
+    <t>ezetimibe</t>
+  </si>
+  <si>
+    <t>ezetimiba</t>
+  </si>
+  <si>
+    <t>zetia</t>
+  </si>
+  <si>
+    <t>flecainide+acetate</t>
+  </si>
+  <si>
+    <t>flecainida</t>
+  </si>
+  <si>
+    <t>tambocor</t>
+  </si>
+  <si>
+    <t>fludara</t>
+  </si>
+  <si>
+    <t>fludarabina</t>
+  </si>
+  <si>
+    <t>gefitinib</t>
+  </si>
+  <si>
+    <t>iressa</t>
+  </si>
+  <si>
+    <t>gliclazide</t>
+  </si>
+  <si>
+    <t>gliclazida</t>
+  </si>
+  <si>
+    <t>30+mg</t>
+  </si>
+  <si>
+    <t>40+mg</t>
+  </si>
+  <si>
+    <t>60+mg</t>
+  </si>
+  <si>
+    <t>160+mg</t>
+  </si>
+  <si>
+    <t>hidroxicarbamida</t>
+  </si>
+  <si>
+    <t>hydrea</t>
+  </si>
+  <si>
+    <t>hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>hidroclorotiazida</t>
+  </si>
+  <si>
+    <t>ibrutinib</t>
+  </si>
+  <si>
+    <t>imbruvica</t>
+  </si>
+  <si>
+    <t>420+mg</t>
+  </si>
+  <si>
+    <t>imatinib+mesylate</t>
+  </si>
+  <si>
+    <t>imatinib</t>
+  </si>
+  <si>
+    <t>gleevec</t>
+  </si>
+  <si>
+    <t>indapamid</t>
+  </si>
+  <si>
+    <t>indapamida</t>
+  </si>
+  <si>
+    <t>1.25+mg</t>
+  </si>
+  <si>
+    <t>2.5+mg</t>
+  </si>
+  <si>
+    <t>lozol</t>
+  </si>
+  <si>
+    <t>ivabradina</t>
+  </si>
+  <si>
+    <t>ivabradine</t>
+  </si>
+  <si>
+    <t>7.5+mg</t>
+  </si>
+  <si>
+    <t>olaparib</t>
+  </si>
+  <si>
+    <t>lynparza</t>
+  </si>
+  <si>
+    <t>oxaliplatin</t>
+  </si>
+  <si>
+    <t>oxaliplatino</t>
+  </si>
+  <si>
+    <t>/?src=drug-suggest#prices</t>
+  </si>
+  <si>
+    <t>100+mg%252f20+ml</t>
+  </si>
+  <si>
+    <t>50+mg%252f10+ml</t>
+  </si>
+  <si>
+    <t>200+mg%252f40+ml</t>
+  </si>
+  <si>
+    <t>5+mg%252fml</t>
+  </si>
+  <si>
+    <t>sitagliptin+phosphate</t>
+  </si>
+  <si>
+    <t>sitagliptina</t>
+  </si>
+  <si>
+    <t>januvia</t>
+  </si>
+  <si>
+    <t>fenofibrate</t>
+  </si>
+  <si>
+    <t>fenofibrato</t>
+  </si>
+  <si>
+    <t>48+mg</t>
+  </si>
+  <si>
+    <t>54+mg</t>
+  </si>
+  <si>
+    <t>67+mg</t>
+  </si>
+  <si>
+    <t>120+mg</t>
+  </si>
+  <si>
+    <t>134+mg</t>
+  </si>
+  <si>
+    <t>145+mg</t>
+  </si>
+  <si>
+    <t>irinotecan+hcl</t>
+  </si>
+  <si>
+    <t>irinotecan</t>
+  </si>
+  <si>
+    <t>100+mg%252f5+ml</t>
+  </si>
+  <si>
+    <t>40+mg%252f2+ml</t>
+  </si>
+  <si>
+    <t>pravastatin+sodium</t>
+  </si>
+  <si>
+    <t>pravastatina</t>
+  </si>
+  <si>
+    <t>pravachol</t>
+  </si>
+  <si>
+    <t>propafenone</t>
+  </si>
+  <si>
+    <t>propafenona</t>
+  </si>
+  <si>
+    <t>225+mg</t>
+  </si>
+  <si>
+    <t>saxagliptin</t>
+  </si>
+  <si>
+    <t>saxagliptina</t>
+  </si>
+  <si>
+    <t>/2.5+mg/?type=generic#prices</t>
+  </si>
+  <si>
+    <t>/5+mg/?type=generic#prices</t>
+  </si>
+  <si>
+    <t>onglyza</t>
+  </si>
+  <si>
+    <t>sunitinib</t>
+  </si>
+  <si>
+    <t>37.5+mg</t>
+  </si>
+  <si>
+    <t>sutent</t>
+  </si>
+  <si>
+    <t>temozolamida</t>
+  </si>
+  <si>
+    <t>180+mg</t>
+  </si>
+  <si>
+    <t>temozolomide</t>
+  </si>
+  <si>
+    <t>temodar</t>
+  </si>
+  <si>
+    <t>tretinoin</t>
+  </si>
+  <si>
+    <t>tretinoina</t>
+  </si>
+  <si>
+    <t>trimetazidine</t>
+  </si>
+  <si>
+    <t>35+mg</t>
+  </si>
+  <si>
+    <t>trimetazidina</t>
+  </si>
+  <si>
+    <t>vastarel+mr</t>
+  </si>
+  <si>
+    <t>vildagliptin</t>
+  </si>
+  <si>
+    <t>vildagliptina</t>
+  </si>
+  <si>
+    <t>galvus</t>
+  </si>
+  <si>
+    <t>vorinostat</t>
+  </si>
+  <si>
+    <t>zolinza</t>
+  </si>
+  <si>
+    <t>ninlaro</t>
+  </si>
+  <si>
+    <t>ixazomib</t>
+  </si>
+  <si>
+    <t>2.3+mg</t>
+  </si>
+  <si>
+    <t>linagliptin</t>
+  </si>
+  <si>
+    <t>linagliptina</t>
+  </si>
+  <si>
+    <t>mercaptopurine</t>
+  </si>
+  <si>
+    <t>mercaptopurina</t>
+  </si>
+  <si>
+    <t>mitomycin</t>
+  </si>
+  <si>
+    <t>mitomicina</t>
+  </si>
+  <si>
+    <t>tasigna</t>
+  </si>
+  <si>
+    <t>nilotinib</t>
+  </si>
+  <si>
+    <t>ofev</t>
+  </si>
+  <si>
+    <t>nintedanib</t>
+  </si>
+  <si>
+    <t>tagrisso</t>
+  </si>
+  <si>
+    <t>osimertinib</t>
+  </si>
+  <si>
+    <t>palbociclib</t>
+  </si>
+  <si>
+    <t>ibrance</t>
+  </si>
+  <si>
+    <t>75+mg</t>
+  </si>
+  <si>
+    <t>125+mg</t>
+  </si>
+  <si>
+    <t>votrient</t>
+  </si>
+  <si>
+    <t>pazopanib</t>
+  </si>
+  <si>
+    <t>pioglitazone</t>
+  </si>
+  <si>
+    <t>pioglitazona</t>
+  </si>
+  <si>
+    <t>15+mg</t>
+  </si>
+  <si>
+    <t>45+mg</t>
+  </si>
+  <si>
+    <t>actos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,16 +958,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBABFC3-A0CE-42EC-9361-78E26EAD77CB}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -577,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -588,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -599,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -610,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -621,7 +1033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -632,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -643,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -654,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -665,7 +1077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -676,7 +1088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -687,7 +1099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -698,7 +1110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -709,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -720,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -731,7 +1143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -742,7 +1154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -753,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -764,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -775,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -786,7 +1198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -797,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -808,7 +1220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -819,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -830,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -841,7 +1253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -852,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -863,7 +1275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -874,7 +1286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -885,7 +1297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -896,7 +1308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -907,7 +1319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -918,7 +1330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -929,7 +1341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -938,6 +1350,1777 @@
       </c>
       <c r="C35" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>59</v>
+      </c>
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>147</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" t="s">
+        <v>150</v>
+      </c>
+      <c r="C158" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" t="s">
+        <v>150</v>
+      </c>
+      <c r="C160" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>153</v>
+      </c>
+      <c r="B161" t="s">
+        <v>150</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" t="s">
+        <v>150</v>
+      </c>
+      <c r="C162" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" t="s">
+        <v>150</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" t="s">
+        <v>150</v>
+      </c>
+      <c r="C164" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" t="s">
+        <v>150</v>
+      </c>
+      <c r="C165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
+        <v>161</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>165</v>
+      </c>
+      <c r="B174" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175" t="s">
+        <v>169</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" t="s">
+        <v>171</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" t="s">
+        <v>175</v>
+      </c>
+      <c r="C180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" t="s">
+        <v>177</v>
+      </c>
+      <c r="C182" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" t="s">
+        <v>179</v>
+      </c>
+      <c r="C183" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184" t="s">
+        <v>179</v>
+      </c>
+      <c r="C184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" t="s">
+        <v>180</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" t="s">
+        <v>185</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191" t="s">
+        <v>187</v>
+      </c>
+      <c r="C191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" t="s">
+        <v>187</v>
+      </c>
+      <c r="C192" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" t="s">
+        <v>187</v>
+      </c>
+      <c r="C193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+      <c r="B195" t="s">
+        <v>187</v>
+      </c>
+      <c r="C195" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>190</v>
+      </c>
+      <c r="B196" t="s">
+        <v>187</v>
+      </c>
+      <c r="C196" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/piloto_seguimiento/correcciones_list_canada.xlsx
+++ b/piloto_seguimiento/correcciones_list_canada.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudio.pacheco\Documents\GitHub\entregables_meds\piloto_seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\GitHub\entregables_meds\piloto_seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D967804B-3802-46FD-8239-4F59868E156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$196</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -121,9 +114,6 @@
     <t>3.5+mg</t>
   </si>
   <si>
-    <t>bosutunib</t>
-  </si>
-  <si>
     <t>500+mg</t>
   </si>
   <si>
@@ -178,9 +168,6 @@
     <t>clonidina</t>
   </si>
   <si>
-    <t>clodinine</t>
-  </si>
-  <si>
     <t>0.025+mg</t>
   </si>
   <si>
@@ -608,12 +595,18 @@
   </si>
   <si>
     <t>actos</t>
+  </si>
+  <si>
+    <t>clonidine</t>
+  </si>
+  <si>
+    <t>bosutinib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,16 +951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -989,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1121,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1143,7 +1136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1154,1976 +1147,1977 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
         <v>61</v>
       </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>70</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
         <v>72</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>74</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="C69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
         <v>80</v>
-      </c>
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" t="s">
-        <v>82</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
         <v>88</v>
       </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
         <v>89</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
         <v>95</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
         <v>98</v>
       </c>
-      <c r="B90" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93" t="s">
-        <v>102</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
         <v>104</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
         <v>105</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
         <v>105</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" t="s">
-        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>110</v>
       </c>
-      <c r="B102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B104" t="s">
         <v>110</v>
-      </c>
-      <c r="B103" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>112</v>
-      </c>
-      <c r="B104" t="s">
-        <v>112</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
         <v>113</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="C107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
         <v>115</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" t="s">
-        <v>122</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
         <v>124</v>
       </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
         <v>125</v>
       </c>
-      <c r="C118" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" t="s">
-        <v>125</v>
-      </c>
-      <c r="C120" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B128" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
         <v>132</v>
       </c>
-      <c r="B128" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" t="s">
-        <v>133</v>
-      </c>
-      <c r="C129" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
         <v>60</v>
       </c>
-      <c r="C131" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>137</v>
       </c>
-      <c r="C132" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>137</v>
       </c>
-      <c r="C133" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="B141" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>137</v>
       </c>
-      <c r="C134" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B142" t="s">
         <v>138</v>
       </c>
-      <c r="B136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C142" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>140</v>
       </c>
-      <c r="C140" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>140</v>
-      </c>
-      <c r="C142" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C144" t="s">
         <v>143</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B153" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>147</v>
       </c>
-      <c r="C153" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>149</v>
-      </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B156" t="s">
+        <v>148</v>
+      </c>
+      <c r="C156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>150</v>
       </c>
-      <c r="C156" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>152</v>
-      </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B158" t="s">
+        <v>148</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>150</v>
       </c>
-      <c r="C158" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>152</v>
-      </c>
       <c r="B159" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>150</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>152</v>
-      </c>
-      <c r="B160" t="s">
-        <v>150</v>
-      </c>
-      <c r="C160" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>153</v>
-      </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C161" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" t="s">
+        <v>148</v>
+      </c>
+      <c r="C165" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" t="s">
+        <v>148</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" t="s">
         <v>153</v>
       </c>
-      <c r="B164" t="s">
-        <v>150</v>
-      </c>
-      <c r="C164" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>153</v>
-      </c>
-      <c r="B165" t="s">
-        <v>150</v>
-      </c>
-      <c r="C165" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>153</v>
-      </c>
-      <c r="B166" t="s">
-        <v>150</v>
-      </c>
-      <c r="C166" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C167" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>154</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" t="s">
         <v>155</v>
       </c>
-      <c r="C167" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" t="s">
         <v>156</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" t="s">
+        <v>156</v>
+      </c>
+      <c r="C170" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>158</v>
       </c>
-      <c r="C168" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B171" t="s">
         <v>159</v>
-      </c>
-      <c r="B169" t="s">
-        <v>158</v>
-      </c>
-      <c r="C169" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>159</v>
-      </c>
-      <c r="B170" t="s">
-        <v>158</v>
-      </c>
-      <c r="C170" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>160</v>
-      </c>
-      <c r="B171" t="s">
-        <v>161</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>163</v>
+      </c>
+      <c r="B174" t="s">
+        <v>164</v>
+      </c>
+      <c r="C174" t="s">
         <v>165</v>
       </c>
-      <c r="B174" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>166</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>168</v>
-      </c>
-      <c r="B175" t="s">
-        <v>169</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>172</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B179" t="s">
         <v>173</v>
       </c>
-      <c r="C177" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>172</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B180" t="s">
         <v>173</v>
       </c>
-      <c r="C178" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C180" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>174</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B181" t="s">
         <v>175</v>
-      </c>
-      <c r="C179" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>174</v>
-      </c>
-      <c r="B180" t="s">
-        <v>175</v>
-      </c>
-      <c r="C180" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>176</v>
-      </c>
-      <c r="B181" t="s">
-        <v>177</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>174</v>
+      </c>
+      <c r="B182" t="s">
+        <v>175</v>
+      </c>
+      <c r="C182" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>176</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>177</v>
       </c>
-      <c r="C182" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="C183" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>176</v>
+      </c>
+      <c r="B184" t="s">
+        <v>177</v>
+      </c>
+      <c r="C184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
         <v>178</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>179</v>
       </c>
-      <c r="C183" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B186" t="s">
         <v>178</v>
-      </c>
-      <c r="B184" t="s">
-        <v>179</v>
-      </c>
-      <c r="C184" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>181</v>
-      </c>
-      <c r="B185" t="s">
-        <v>180</v>
-      </c>
-      <c r="C185" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>181</v>
-      </c>
-      <c r="B186" t="s">
-        <v>180</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>179</v>
+      </c>
+      <c r="B187" t="s">
+        <v>178</v>
+      </c>
+      <c r="C187" t="s">
         <v>181</v>
       </c>
-      <c r="B187" t="s">
-        <v>180</v>
-      </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>184</v>
-      </c>
-      <c r="B188" t="s">
-        <v>185</v>
-      </c>
       <c r="C188" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" t="s">
+        <v>185</v>
+      </c>
+      <c r="C190" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>184</v>
+      </c>
+      <c r="B191" t="s">
+        <v>185</v>
+      </c>
+      <c r="C191" t="s">
         <v>186</v>
       </c>
-      <c r="B190" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>184</v>
+      </c>
+      <c r="B192" t="s">
+        <v>185</v>
+      </c>
+      <c r="C192" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>184</v>
+      </c>
+      <c r="B193" t="s">
+        <v>185</v>
+      </c>
+      <c r="C193" t="s">
         <v>187</v>
       </c>
-      <c r="C190" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194" t="s">
         <v>186</v>
       </c>
-      <c r="B191" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" t="s">
+        <v>185</v>
+      </c>
+      <c r="C195" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>185</v>
+      </c>
+      <c r="C196" t="s">
         <v>187</v>
       </c>
-      <c r="C191" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" t="s">
-        <v>187</v>
-      </c>
-      <c r="C192" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>186</v>
-      </c>
-      <c r="B193" t="s">
-        <v>187</v>
-      </c>
-      <c r="C193" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>190</v>
-      </c>
-      <c r="B194" t="s">
-        <v>187</v>
-      </c>
-      <c r="C194" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>190</v>
-      </c>
-      <c r="B195" t="s">
-        <v>187</v>
-      </c>
-      <c r="C195" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>190</v>
-      </c>
-      <c r="B196" t="s">
-        <v>187</v>
-      </c>
-      <c r="C196" t="s">
-        <v>189</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/piloto_seguimiento/correcciones_list_canada.xlsx
+++ b/piloto_seguimiento/correcciones_list_canada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\GitHub\entregables_meds\piloto_seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudio.pacheco\Documents\GitHub\entregables_meds\piloto_seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D967804B-3802-46FD-8239-4F59868E156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -225,12 +224,6 @@
     <t>sprycel</t>
   </si>
   <si>
-    <t>empaglifozin</t>
-  </si>
-  <si>
-    <t>empaglifozina</t>
-  </si>
-  <si>
     <t>jardiance</t>
   </si>
   <si>
@@ -601,12 +594,18 @@
   </si>
   <si>
     <t>bosutinib</t>
+  </si>
+  <si>
+    <t>empagliflozin</t>
+  </si>
+  <si>
+    <t>empagliflozina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,16 +950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -982,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -993,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1147,51 +1146,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1290,9 +1289,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -1301,9 +1300,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -1312,9 +1311,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
@@ -1323,9 +1322,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
@@ -1334,7 +1333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1375,10 +1374,10 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1455,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -1532,854 +1531,854 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
         <v>87</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" t="s">
-        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
         <v>103</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
         <v>103</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" t="s">
-        <v>107</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
         <v>107</v>
       </c>
-      <c r="C102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
         <v>113</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" t="s">
-        <v>120</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
         <v>122</v>
       </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
         <v>123</v>
       </c>
-      <c r="C118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
         <v>130</v>
       </c>
-      <c r="B128" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>131</v>
-      </c>
-      <c r="C129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -2401,723 +2400,723 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C137" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C140" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" t="s">
         <v>137</v>
       </c>
-      <c r="B141" t="s">
-        <v>138</v>
-      </c>
-      <c r="C141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C142" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
         <v>140</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+      <c r="C144" t="s">
         <v>141</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>140</v>
-      </c>
-      <c r="B144" t="s">
-        <v>141</v>
-      </c>
-      <c r="C144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C145" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B153" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>145</v>
       </c>
-      <c r="C153" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>147</v>
-      </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C156" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B159" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>148</v>
       </c>
-      <c r="C159" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>150</v>
-      </c>
       <c r="B160" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C160" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C161" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C162" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B165" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C165" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>151</v>
-      </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" t="s">
         <v>154</v>
       </c>
-      <c r="B168" t="s">
-        <v>156</v>
-      </c>
       <c r="C168" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>157</v>
-      </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C169" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>157</v>
-      </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C170" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B171" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>161</v>
+      </c>
+      <c r="B174" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" t="s">
         <v>163</v>
       </c>
-      <c r="B174" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>164</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>166</v>
-      </c>
-      <c r="B175" t="s">
-        <v>167</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C177" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>168</v>
+      </c>
+      <c r="B178" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>170</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>171</v>
-      </c>
-      <c r="C178" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" t="s">
-        <v>173</v>
       </c>
       <c r="C179" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C180" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C182" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B183" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C184" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B185" t="s">
+        <v>176</v>
+      </c>
+      <c r="C185" t="s">
         <v>178</v>
       </c>
-      <c r="C185" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>177</v>
+      </c>
+      <c r="B187" t="s">
+        <v>176</v>
+      </c>
+      <c r="C187" t="s">
         <v>179</v>
       </c>
-      <c r="B187" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>180</v>
+      </c>
+      <c r="B188" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>182</v>
-      </c>
-      <c r="B188" t="s">
-        <v>183</v>
       </c>
       <c r="C188" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>182</v>
+      </c>
+      <c r="B190" t="s">
+        <v>183</v>
+      </c>
+      <c r="C190" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>182</v>
+      </c>
+      <c r="B191" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" t="s">
         <v>184</v>
       </c>
-      <c r="B190" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>182</v>
+      </c>
+      <c r="B192" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>182</v>
+      </c>
+      <c r="B193" t="s">
+        <v>183</v>
+      </c>
+      <c r="C193" t="s">
         <v>185</v>
       </c>
-      <c r="C190" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>186</v>
+      </c>
+      <c r="B194" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194" t="s">
         <v>184</v>
       </c>
-      <c r="B191" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B195" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>186</v>
+      </c>
+      <c r="B196" t="s">
+        <v>183</v>
+      </c>
+      <c r="C196" t="s">
         <v>185</v>
       </c>
-      <c r="C191" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>184</v>
-      </c>
-      <c r="B192" t="s">
-        <v>185</v>
-      </c>
-      <c r="C192" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>184</v>
-      </c>
-      <c r="B193" t="s">
-        <v>185</v>
-      </c>
-      <c r="C193" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>188</v>
-      </c>
-      <c r="B194" t="s">
-        <v>185</v>
-      </c>
-      <c r="C194" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>188</v>
-      </c>
-      <c r="B195" t="s">
-        <v>185</v>
-      </c>
-      <c r="C195" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>188</v>
-      </c>
-      <c r="B196" t="s">
-        <v>185</v>
-      </c>
-      <c r="C196" t="s">
-        <v>187</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C196"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
